--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -1429,7 +1429,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1492,9 +1492,32 @@
         <v>Yes</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>08/11/2025</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Merge Two Sorted Linked Lists</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Linked List</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Easy</v>
+      </c>
+      <c r="E3" t="str">
+        <v>No (knew method but didnt know how to code it)</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -1429,7 +1429,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1515,9 +1515,144 @@
         <v>Yes</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>08/12/2025</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Linked List Cycle Detection</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Linked List</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Easy</v>
+      </c>
+      <c r="E4" t="str">
+        <v>No (needed hint but was able to do code)</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v>Reorder List</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Linked List</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="str">
+        <v>Remove Nth Node From End of List</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Linked List</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>Copy List with Random Pointer</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Linked List</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="str">
+        <v>Add Two Numbers</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Linked List</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>Find The Duplicate Number</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Linked List</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>LRU Cache</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Linked List</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="str">
+        <v>Merge K Sorted Lists</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Linked List</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Hard</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="str">
+        <v>Reverse Nodes In K Group</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Linked List</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Hard</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Binary Search" sheetId="4" r:id="rId4"/>
     <sheet name="Sliding Window" sheetId="5" r:id="rId5"/>
     <sheet name="Linked List" sheetId="6" r:id="rId6"/>
+    <sheet name="Others" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -402,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -649,9 +650,55 @@
         <v>No</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>08/14/2025</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Triple ZigZag</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Arrays</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Easy</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Maybe</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Yes_x000d_</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>08/14/2025</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Simple Bank System</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Arrays</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Maybe</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K14"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1655,4 +1702,53 @@
     <ignoredError numberStoredAsText="1" sqref="A1:K12"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Date Solved</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Algorithm</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Difficulty</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Solved First Time</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Revisit?</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Understand?</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Revisit Date #1</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Revisit Date #2</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Revisit Date #3</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Confidence Now</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:K1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -1586,6 +1586,9 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <v>08/17/2025</v>
+      </c>
       <c r="B5" t="str">
         <v>Reorder List</v>
       </c>
@@ -1595,11 +1598,20 @@
       <c r="D5" t="str">
         <v>Medium</v>
       </c>
+      <c r="E5" t="str">
+        <v>Yes (maybe needed help with optimal or code but knew the concept)</v>
+      </c>
       <c r="F5" t="str">
         <v>Yes</v>
       </c>
+      <c r="G5" t="str">
+        <v>Yes</v>
+      </c>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <v>08/17/2025</v>
+      </c>
       <c r="B6" t="str">
         <v>Remove Nth Node From End of List</v>
       </c>
@@ -1609,7 +1621,13 @@
       <c r="D6" t="str">
         <v>Medium</v>
       </c>
+      <c r="E6" t="str">
+        <v>Yes (only needed help with error in brute but needed help in optimal)</v>
+      </c>
       <c r="F6" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G6" t="str">
         <v>Yes</v>
       </c>
     </row>

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -1632,6 +1632,9 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <v>08/19/2025</v>
+      </c>
       <c r="B7" t="str">
         <v>Copy List with Random Pointer</v>
       </c>
@@ -1641,7 +1644,13 @@
       <c r="D7" t="str">
         <v>Medium</v>
       </c>
+      <c r="E7" t="str">
+        <v>No</v>
+      </c>
       <c r="F7" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G7" t="str">
         <v>Yes</v>
       </c>
     </row>

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -1655,6 +1655,9 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <v>08/24/2025</v>
+      </c>
       <c r="B8" t="str">
         <v>Add Two Numbers</v>
       </c>
@@ -1664,7 +1667,13 @@
       <c r="D8" t="str">
         <v>Medium</v>
       </c>
+      <c r="E8" t="str">
+        <v>Somewhat (managed to come up with a solution but didnt work fully so had to look at correct tutorial)</v>
+      </c>
       <c r="F8" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G8" t="str">
         <v>Yes</v>
       </c>
     </row>

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -1678,6 +1678,9 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <v>08/25/2025</v>
+      </c>
       <c r="B9" t="str">
         <v>Find The Duplicate Number</v>
       </c>
@@ -1687,7 +1690,13 @@
       <c r="D9" t="str">
         <v>Medium</v>
       </c>
+      <c r="E9" t="str">
+        <v>Yes (did O(n) time and space but looked up better space  complexity)</v>
+      </c>
       <c r="F9" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G9" t="str">
         <v>Yes</v>
       </c>
     </row>

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -1701,6 +1701,9 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="str">
+        <v>08/27/2025</v>
+      </c>
       <c r="B10" t="str">
         <v>LRU Cache</v>
       </c>
@@ -1710,11 +1713,20 @@
       <c r="D10" t="str">
         <v>Medium</v>
       </c>
+      <c r="E10" t="str">
+        <v>Somewhat</v>
+      </c>
       <c r="F10" t="str">
         <v>Yes</v>
       </c>
+      <c r="G10" t="str">
+        <v>Yes</v>
+      </c>
     </row>
     <row r="11">
+      <c r="A11" t="str">
+        <v>08/30/2025</v>
+      </c>
       <c r="B11" t="str">
         <v>Merge K Sorted Lists</v>
       </c>
@@ -1724,11 +1736,20 @@
       <c r="D11" t="str">
         <v>Hard</v>
       </c>
+      <c r="E11" t="str">
+        <v>No</v>
+      </c>
       <c r="F11" t="str">
         <v>Yes</v>
       </c>
+      <c r="G11" t="str">
+        <v>Yes</v>
+      </c>
     </row>
     <row r="12">
+      <c r="A12" t="str">
+        <v>08/30/2025</v>
+      </c>
       <c r="B12" t="str">
         <v>Reverse Nodes In K Group</v>
       </c>
@@ -1738,7 +1759,13 @@
       <c r="D12" t="str">
         <v>Hard</v>
       </c>
+      <c r="E12" t="str">
+        <v>No</v>
+      </c>
       <c r="F12" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G12" t="str">
         <v>Yes</v>
       </c>
     </row>

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Binary Search" sheetId="4" r:id="rId4"/>
     <sheet name="Sliding Window" sheetId="5" r:id="rId5"/>
     <sheet name="Linked List" sheetId="6" r:id="rId6"/>
-    <sheet name="Others" sheetId="7" r:id="rId7"/>
+    <sheet name="Trees" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -1778,7 +1778,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1818,9 +1818,270 @@
         <v>Confidence Now</v>
       </c>
     </row>
+    <row r="2">
+      <c r="B2" t="str">
+        <v>Invert Binary Tree</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Trees</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Easy</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="str">
+        <v>Maximum Depth of Binary Tree</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Trees</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Easy</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="str">
+        <v>Diameter of Binary Tree</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Trees</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Easy</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v>Balanced Binary Tree</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Trees</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Easy</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>08/31/2025</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Same Tree</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Trees</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Easy</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>Subtree of Another Tree</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Trees</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Easy</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="str">
+        <v>Lowest Common Ancestor of a Binary Search Tree</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Trees</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>Binary Tree Level Order Traversal</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Trees</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>Binary Tree Right Side View</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Trees</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="str">
+        <v>Count Good Nodes in Binary Tree</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Trees</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="str">
+        <v>Validate Binary Search Tree</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Trees</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="str">
+        <v>Kth Smallest Element in a Bst</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Trees</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="str">
+        <v>Construct Binary Tree From Preorder and Inorder Traversal</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Trees</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="str">
+        <v>Binary Tree Maximum Path Sum</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Trees</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Hard</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="str">
+        <v>Serialize and Deserialize Binary Tree</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Trees</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Hard</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -1836,6 +1836,9 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <v>09/03/2025</v>
+      </c>
       <c r="B3" t="str">
         <v>Maximum Depth of Binary Tree</v>
       </c>
@@ -1844,6 +1847,9 @@
       </c>
       <c r="D3" t="str">
         <v>Easy</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Yes</v>
       </c>
       <c r="F3" t="str">
         <v>Yes</v>
@@ -1870,6 +1876,9 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <v>09/03/2025</v>
+      </c>
       <c r="B5" t="str">
         <v>Balanced Binary Tree</v>
       </c>
@@ -1878,6 +1887,9 @@
       </c>
       <c r="D5" t="str">
         <v>Easy</v>
+      </c>
+      <c r="E5" t="str">
+        <v>No</v>
       </c>
       <c r="F5" t="str">
         <v>Yes</v>

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -509,7 +509,10 @@
         <v>Yes</v>
       </c>
       <c r="G4" t="str">
-        <v>No</v>
+        <v>Yes</v>
+      </c>
+      <c r="H4" t="str">
+        <v>09/06/2025</v>
       </c>
     </row>
     <row r="5">
@@ -1778,7 +1781,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1819,6 +1822,9 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <v>09/06/2025</v>
+      </c>
       <c r="B2" t="str">
         <v>Invert Binary Tree</v>
       </c>
@@ -1827,6 +1833,9 @@
       </c>
       <c r="D2" t="str">
         <v>Easy</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Yes</v>
       </c>
       <c r="F2" t="str">
         <v>Yes</v>
@@ -2091,9 +2100,32 @@
         <v>Yes</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>09/06/2025</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Binary Tree Inorder Traversal</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Trees</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Easy</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -1868,6 +1868,9 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <v>09/16/2025</v>
+      </c>
       <c r="B4" t="str">
         <v>Diameter of Binary Tree</v>
       </c>
@@ -1876,6 +1879,9 @@
       </c>
       <c r="D4" t="str">
         <v>Easy</v>
+      </c>
+      <c r="E4" t="str">
+        <v>No</v>
       </c>
       <c r="F4" t="str">
         <v>Yes</v>
@@ -1931,6 +1937,9 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <v>09/16/2025</v>
+      </c>
       <c r="B7" t="str">
         <v>Subtree of Another Tree</v>
       </c>

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -1949,6 +1949,9 @@
       <c r="D7" t="str">
         <v>Easy</v>
       </c>
+      <c r="E7" t="str">
+        <v>No</v>
+      </c>
       <c r="F7" t="str">
         <v>Yes</v>
       </c>
@@ -1957,6 +1960,9 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <v>09/17/2025</v>
+      </c>
       <c r="B8" t="str">
         <v>Lowest Common Ancestor of a Binary Search Tree</v>
       </c>
@@ -1965,6 +1971,9 @@
       </c>
       <c r="D8" t="str">
         <v>Medium</v>
+      </c>
+      <c r="E8" t="str">
+        <v>No</v>
       </c>
       <c r="F8" t="str">
         <v>Yes</v>

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -2051,6 +2051,9 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <v>09/19/2025</v>
+      </c>
       <c r="B13" t="str">
         <v>Kth Smallest Element in a Bst</v>
       </c>
@@ -2059,6 +2062,9 @@
       </c>
       <c r="D13" t="str">
         <v>Medium</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Yes</v>
       </c>
       <c r="F13" t="str">
         <v>Yes</v>

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -2017,6 +2017,9 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="str">
+        <v>09/20/2025</v>
+      </c>
       <c r="B11" t="str">
         <v>Count Good Nodes in Binary Tree</v>
       </c>
@@ -2025,6 +2028,9 @@
       </c>
       <c r="D11" t="str">
         <v>Medium</v>
+      </c>
+      <c r="E11" t="str">
+        <v>No</v>
       </c>
       <c r="F11" t="str">
         <v>Yes</v>

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -1961,7 +1961,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>09/17/2025</v>
+        <v>09/21/2025</v>
       </c>
       <c r="B8" t="str">
         <v>Lowest Common Ancestor of a Binary Search Tree</v>
@@ -1983,6 +1983,9 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <v>09/17/2025</v>
+      </c>
       <c r="B9" t="str">
         <v>Binary Tree Level Order Traversal</v>
       </c>
@@ -1991,6 +1994,9 @@
       </c>
       <c r="D9" t="str">
         <v>Medium</v>
+      </c>
+      <c r="E9" t="str">
+        <v>No</v>
       </c>
       <c r="F9" t="str">
         <v>Yes</v>

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -2006,6 +2006,9 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="str">
+        <v>09/22/2025</v>
+      </c>
       <c r="B10" t="str">
         <v>Binary Tree Right Side View</v>
       </c>
@@ -2014,6 +2017,9 @@
       </c>
       <c r="D10" t="str">
         <v>Medium</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Kinda (needed some help but had somewhat the right idea and code)</v>
       </c>
       <c r="F10" t="str">
         <v>Yes</v>
@@ -2120,6 +2126,9 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <v>09/22/2025</v>
+      </c>
       <c r="B16" t="str">
         <v>Serialize and Deserialize Binary Tree</v>
       </c>
@@ -2128,6 +2137,9 @@
       </c>
       <c r="D16" t="str">
         <v>Hard</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Kinda (figured out serialization and thought it was wrong because of the output eventhough it wasnt. made me look for help when I should have kept going)</v>
       </c>
       <c r="F16" t="str">
         <v>Yes</v>

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -403,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -425,21 +425,24 @@
         <v>Solved First Time</v>
       </c>
       <c r="F1" t="str">
+        <v>Video Help</v>
+      </c>
+      <c r="G1" t="str">
         <v>Revisit?</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>Understand?</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>Revisit Date #1</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>Revisit Date #2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>Revisit Date #3</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>Confidence Now</v>
       </c>
     </row>
@@ -459,10 +462,10 @@
       <c r="E2" t="str">
         <v>No</v>
       </c>
-      <c r="F2" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G2" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H2" t="str">
         <v>No</v>
       </c>
     </row>
@@ -482,10 +485,10 @@
       <c r="E3" t="str">
         <v>No</v>
       </c>
-      <c r="F3" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H3" t="str">
         <v>No</v>
       </c>
     </row>
@@ -505,13 +508,13 @@
       <c r="E4" t="str">
         <v>No</v>
       </c>
-      <c r="F4" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G4" t="str">
         <v>Yes</v>
       </c>
       <c r="H4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I4" t="str">
         <v>09/06/2025</v>
       </c>
     </row>
@@ -531,10 +534,10 @@
       <c r="E5" t="str">
         <v>No</v>
       </c>
-      <c r="F5" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G5" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H5" t="str">
         <v>No</v>
       </c>
     </row>
@@ -554,10 +557,10 @@
       <c r="E6" t="str">
         <v>No</v>
       </c>
-      <c r="F6" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G6" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H6" t="str">
         <v>No</v>
       </c>
     </row>
@@ -577,10 +580,10 @@
       <c r="E7" t="str">
         <v>No</v>
       </c>
-      <c r="F7" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G7" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H7" t="str">
         <v>No</v>
       </c>
     </row>
@@ -600,10 +603,10 @@
       <c r="E8" t="str">
         <v>No</v>
       </c>
-      <c r="F8" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G8" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H8" t="str">
         <v>No</v>
       </c>
     </row>
@@ -623,10 +626,10 @@
       <c r="E9" t="str">
         <v>No</v>
       </c>
-      <c r="F9" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G9" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H9" t="str">
         <v>No</v>
       </c>
     </row>
@@ -646,10 +649,10 @@
       <c r="E10" t="str">
         <v>No</v>
       </c>
-      <c r="F10" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G10" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H10" t="str">
         <v>No</v>
       </c>
     </row>
@@ -669,10 +672,10 @@
       <c r="E13" t="str">
         <v>Yes</v>
       </c>
-      <c r="F13" t="str">
+      <c r="G13" t="str">
         <v>Maybe</v>
       </c>
-      <c r="G13" t="str">
+      <c r="H13" t="str">
         <v>Yes_x000d_</v>
       </c>
     </row>
@@ -692,23 +695,23 @@
       <c r="E14" t="str">
         <v>Yes</v>
       </c>
-      <c r="F14" t="str">
+      <c r="G14" t="str">
         <v>Maybe</v>
       </c>
-      <c r="G14" t="str">
+      <c r="H14" t="str">
         <v>Yes</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L14"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -730,21 +733,24 @@
         <v>Solved First Time</v>
       </c>
       <c r="F1" t="str">
+        <v>Video Help</v>
+      </c>
+      <c r="G1" t="str">
         <v>Revisit?</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>Understand?</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>Revisit Date #1</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>Revisit Date #2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>Revisit Date #3</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>Confidence Now</v>
       </c>
     </row>
@@ -764,10 +770,10 @@
       <c r="E2" t="str">
         <v>No</v>
       </c>
-      <c r="F2" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G2" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H2" t="str">
         <v>No</v>
       </c>
     </row>
@@ -787,10 +793,10 @@
       <c r="E3" t="str">
         <v>No</v>
       </c>
-      <c r="F3" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H3" t="str">
         <v>No</v>
       </c>
     </row>
@@ -810,10 +816,10 @@
       <c r="E4" t="str">
         <v>No</v>
       </c>
-      <c r="F4" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H4" t="str">
         <v>No</v>
       </c>
     </row>
@@ -833,10 +839,10 @@
       <c r="E5" t="str">
         <v>No</v>
       </c>
-      <c r="F5" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G5" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H5" t="str">
         <v>No</v>
       </c>
     </row>
@@ -856,23 +862,23 @@
       <c r="E6" t="str">
         <v>No</v>
       </c>
-      <c r="F6" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G6" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H6" t="str">
         <v>No</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -894,21 +900,24 @@
         <v>Solved First Time</v>
       </c>
       <c r="F1" t="str">
+        <v>Video Help</v>
+      </c>
+      <c r="G1" t="str">
         <v>Revisit?</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>Understand?</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>Revisit Date #1</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>Revisit Date #2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>Revisit Date #3</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>Confidence Now</v>
       </c>
     </row>
@@ -928,10 +937,10 @@
       <c r="E2" t="str">
         <v>No</v>
       </c>
-      <c r="F2" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G2" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H2" t="str">
         <v>No</v>
       </c>
     </row>
@@ -951,10 +960,10 @@
       <c r="E3" t="str">
         <v>No</v>
       </c>
-      <c r="F3" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H3" t="str">
         <v>No</v>
       </c>
     </row>
@@ -974,10 +983,10 @@
       <c r="E4" t="str">
         <v>No</v>
       </c>
-      <c r="F4" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H4" t="str">
         <v>No</v>
       </c>
     </row>
@@ -997,10 +1006,10 @@
       <c r="E5" t="str">
         <v>No</v>
       </c>
-      <c r="F5" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G5" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H5" t="str">
         <v>No</v>
       </c>
     </row>
@@ -1020,10 +1029,10 @@
       <c r="E6" t="str">
         <v>No</v>
       </c>
-      <c r="F6" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G6" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H6" t="str">
         <v>No</v>
       </c>
     </row>
@@ -1043,10 +1052,10 @@
       <c r="E7" t="str">
         <v>No</v>
       </c>
-      <c r="F7" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G7" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H7" t="str">
         <v>No</v>
       </c>
     </row>
@@ -1066,23 +1075,23 @@
       <c r="E8" t="str">
         <v>No</v>
       </c>
-      <c r="F8" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G8" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H8" t="str">
         <v>No</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1104,21 +1113,24 @@
         <v>Solved First Time</v>
       </c>
       <c r="F1" t="str">
+        <v>Video Help</v>
+      </c>
+      <c r="G1" t="str">
         <v>Revisit?</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>Understand?</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>Revisit Date #1</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>Revisit Date #2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>Revisit Date #3</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>Confidence Now</v>
       </c>
     </row>
@@ -1138,10 +1150,10 @@
       <c r="E2" t="str">
         <v>No</v>
       </c>
-      <c r="F2" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G2" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H2" t="str">
         <v>No</v>
       </c>
     </row>
@@ -1161,10 +1173,10 @@
       <c r="E3" t="str">
         <v>No</v>
       </c>
-      <c r="F3" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H3" t="str">
         <v>No</v>
       </c>
     </row>
@@ -1184,10 +1196,10 @@
       <c r="E4" t="str">
         <v>No</v>
       </c>
-      <c r="F4" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H4" t="str">
         <v>No</v>
       </c>
     </row>
@@ -1207,10 +1219,10 @@
       <c r="E5" t="str">
         <v>No</v>
       </c>
-      <c r="F5" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G5" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H5" t="str">
         <v>No</v>
       </c>
     </row>
@@ -1230,10 +1242,10 @@
       <c r="E6" t="str">
         <v>No</v>
       </c>
-      <c r="F6" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G6" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H6" t="str">
         <v>No</v>
       </c>
     </row>
@@ -1253,10 +1265,10 @@
       <c r="E7" t="str">
         <v>No</v>
       </c>
-      <c r="F7" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G7" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H7" t="str">
         <v>No</v>
       </c>
     </row>
@@ -1276,23 +1288,23 @@
       <c r="E8" t="str">
         <v>No</v>
       </c>
-      <c r="F8" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G8" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H8" t="str">
         <v>No</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1314,21 +1326,24 @@
         <v>Solved First Time</v>
       </c>
       <c r="F1" t="str">
+        <v>Video Help</v>
+      </c>
+      <c r="G1" t="str">
         <v>Revisit?</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>Understand?</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>Revisit Date #1</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>Revisit Date #2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>Revisit Date #3</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>Confidence Now</v>
       </c>
     </row>
@@ -1348,10 +1363,10 @@
       <c r="E2" t="str">
         <v>No</v>
       </c>
-      <c r="F2" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G2" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H2" t="str">
         <v>No</v>
       </c>
     </row>
@@ -1371,10 +1386,10 @@
       <c r="E3" t="str">
         <v>No</v>
       </c>
-      <c r="F3" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H3" t="str">
         <v>No</v>
       </c>
     </row>
@@ -1394,10 +1409,10 @@
       <c r="E4" t="str">
         <v>No</v>
       </c>
-      <c r="F4" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H4" t="str">
         <v>No</v>
       </c>
     </row>
@@ -1417,10 +1432,10 @@
       <c r="E5" t="str">
         <v>No</v>
       </c>
-      <c r="F5" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G5" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H5" t="str">
         <v>No</v>
       </c>
     </row>
@@ -1440,10 +1455,10 @@
       <c r="E6" t="str">
         <v>No</v>
       </c>
-      <c r="F6" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G6" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H6" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1463,23 +1478,23 @@
       <c r="E7" t="str">
         <v>Yes (brute but not optimal)</v>
       </c>
-      <c r="F7" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G7" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H7" t="str">
         <v>Yes</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1501,21 +1516,24 @@
         <v>Solved First Time</v>
       </c>
       <c r="F1" t="str">
+        <v>Video Help</v>
+      </c>
+      <c r="G1" t="str">
         <v>Revisit?</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>Understand?</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>Revisit Date #1</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>Revisit Date #2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>Revisit Date #3</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>Confidence Now</v>
       </c>
     </row>
@@ -1535,10 +1553,10 @@
       <c r="E2" t="str">
         <v>No (knew method but didnt know how to code it)</v>
       </c>
-      <c r="F2" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G2" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H2" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1558,10 +1576,10 @@
       <c r="E3" t="str">
         <v>No (knew method but didnt know how to code it)</v>
       </c>
-      <c r="F3" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H3" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1581,10 +1599,10 @@
       <c r="E4" t="str">
         <v>No (needed hint but was able to do code)</v>
       </c>
-      <c r="F4" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H4" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1604,10 +1622,10 @@
       <c r="E5" t="str">
         <v>Yes (maybe needed help with optimal or code but knew the concept)</v>
       </c>
-      <c r="F5" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G5" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H5" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1627,10 +1645,10 @@
       <c r="E6" t="str">
         <v>Yes (only needed help with error in brute but needed help in optimal)</v>
       </c>
-      <c r="F6" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G6" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H6" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1650,10 +1668,10 @@
       <c r="E7" t="str">
         <v>No</v>
       </c>
-      <c r="F7" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G7" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H7" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1673,10 +1691,10 @@
       <c r="E8" t="str">
         <v>Somewhat (managed to come up with a solution but didnt work fully so had to look at correct tutorial)</v>
       </c>
-      <c r="F8" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G8" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H8" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1696,10 +1714,10 @@
       <c r="E9" t="str">
         <v>Yes (did O(n) time and space but looked up better space  complexity)</v>
       </c>
-      <c r="F9" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G9" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H9" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1719,10 +1737,10 @@
       <c r="E10" t="str">
         <v>Somewhat</v>
       </c>
-      <c r="F10" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G10" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H10" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1742,10 +1760,10 @@
       <c r="E11" t="str">
         <v>No</v>
       </c>
-      <c r="F11" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G11" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H11" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1765,23 +1783,23 @@
       <c r="E12" t="str">
         <v>No</v>
       </c>
-      <c r="F12" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G12" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H12" t="str">
         <v>Yes</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L12"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1803,21 +1821,24 @@
         <v>Solved First Time</v>
       </c>
       <c r="F1" t="str">
+        <v>Video Help</v>
+      </c>
+      <c r="G1" t="str">
         <v>Revisit?</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>Understand?</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>Revisit Date #1</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>Revisit Date #2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>Revisit Date #3</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>Confidence Now</v>
       </c>
     </row>
@@ -1837,10 +1858,10 @@
       <c r="E2" t="str">
         <v>Yes</v>
       </c>
-      <c r="F2" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G2" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H2" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1860,10 +1881,10 @@
       <c r="E3" t="str">
         <v>Yes</v>
       </c>
-      <c r="F3" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H3" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1883,10 +1904,10 @@
       <c r="E4" t="str">
         <v>No</v>
       </c>
-      <c r="F4" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H4" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1906,10 +1927,10 @@
       <c r="E5" t="str">
         <v>No</v>
       </c>
-      <c r="F5" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G5" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H5" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1929,10 +1950,10 @@
       <c r="E6" t="str">
         <v>Yes</v>
       </c>
-      <c r="F6" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G6" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H6" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1952,10 +1973,10 @@
       <c r="E7" t="str">
         <v>No</v>
       </c>
-      <c r="F7" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G7" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H7" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1975,10 +1996,10 @@
       <c r="E8" t="str">
         <v>No</v>
       </c>
-      <c r="F8" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G8" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H8" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1998,10 +2019,10 @@
       <c r="E9" t="str">
         <v>No</v>
       </c>
-      <c r="F9" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G9" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H9" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -2021,10 +2042,10 @@
       <c r="E10" t="str">
         <v>Kinda (needed some help but had somewhat the right idea and code)</v>
       </c>
-      <c r="F10" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G10" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H10" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -2044,14 +2065,17 @@
       <c r="E11" t="str">
         <v>No</v>
       </c>
-      <c r="F11" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G11" t="str">
         <v>Yes</v>
       </c>
+      <c r="H11" t="str">
+        <v>Yes</v>
+      </c>
     </row>
     <row r="12">
+      <c r="A12" t="str">
+        <v>09/23/2025</v>
+      </c>
       <c r="B12" t="str">
         <v>Validate Binary Search Tree</v>
       </c>
@@ -2061,10 +2085,13 @@
       <c r="D12" t="str">
         <v>Medium</v>
       </c>
-      <c r="F12" t="str">
-        <v>Yes</v>
+      <c r="E12" t="str">
+        <v>Kinda (messed up on the code had the right idea)</v>
       </c>
       <c r="G12" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H12" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -2084,10 +2111,10 @@
       <c r="E13" t="str">
         <v>Yes</v>
       </c>
-      <c r="F13" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G13" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H13" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -2101,14 +2128,17 @@
       <c r="D14" t="str">
         <v>Medium</v>
       </c>
-      <c r="F14" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G14" t="str">
         <v>Yes</v>
       </c>
+      <c r="H14" t="str">
+        <v>Yes</v>
+      </c>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <v>09/23/2025</v>
+      </c>
       <c r="B15" t="str">
         <v>Binary Tree Maximum Path Sum</v>
       </c>
@@ -2118,10 +2148,16 @@
       <c r="D15" t="str">
         <v>Hard</v>
       </c>
+      <c r="E15" t="str">
+        <v xml:space="preserve">No (This was rough) </v>
+      </c>
       <c r="F15" t="str">
-        <v>Yes</v>
+        <v>https://www.youtube.com/watch?v=6cA_NDtpyz8</v>
       </c>
       <c r="G15" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H15" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -2141,10 +2177,10 @@
       <c r="E16" t="str">
         <v>Kinda (figured out serialization and thought it was wrong because of the output eventhough it wasnt. made me look for help when I should have kept going)</v>
       </c>
-      <c r="F16" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G16" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H16" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -2164,16 +2200,16 @@
       <c r="E18" t="str">
         <v>Yes</v>
       </c>
-      <c r="F18" t="str">
-        <v>Yes</v>
-      </c>
       <c r="G18" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H18" t="str">
         <v>Yes</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -2088,6 +2088,9 @@
       <c r="E12" t="str">
         <v>Kinda (messed up on the code had the right idea)</v>
       </c>
+      <c r="F12" t="str">
+        <v>https://www.youtube.com/watch?v=s6ATEkipzow&amp;t=9s</v>
+      </c>
       <c r="G12" t="str">
         <v>Yes</v>
       </c>

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -2122,6 +2122,9 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <v>09/24/2025</v>
+      </c>
       <c r="B14" t="str">
         <v>Construct Binary Tree From Preorder and Inorder Traversal</v>
       </c>
@@ -2130,6 +2133,12 @@
       </c>
       <c r="D14" t="str">
         <v>Medium</v>
+      </c>
+      <c r="E14" t="str">
+        <v>No</v>
+      </c>
+      <c r="F14" t="str">
+        <v>https://www.youtube.com/watch?v=ihj4IQGZ2zc  ||    https://www.youtube.com/watch?v=PbPS460rbMo</v>
       </c>
       <c r="G14" t="str">
         <v>Yes</v>

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sliding Window" sheetId="5" r:id="rId5"/>
     <sheet name="Linked List" sheetId="6" r:id="rId6"/>
     <sheet name="Trees" sheetId="7" r:id="rId7"/>
+    <sheet name="Tries" sheetId="8" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
@@ -2224,4 +2225,107 @@
     <ignoredError numberStoredAsText="1" sqref="A1:L18"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Date Solved</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Algorithm</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Difficulty</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Solved First Time</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Video Help</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Revisit?</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Understand?</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Revisit Date #1</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Revisit Date #2</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Revisit Date #3</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Confidence Now</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>09/30/25</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Implement Trie Prefix Tree</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Tries</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Kinda</v>
+      </c>
+      <c r="F2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Maybe</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v>Design Add and Search Words Data Structure</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Tries</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="str">
+        <v>Word Search 2</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Tries</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Hard</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -2289,10 +2289,10 @@
         <v>Kinda</v>
       </c>
       <c r="F2" t="str">
-        <v>N/A</v>
+        <v>https://www.youtube.com/watch?v=oobqoCJlHA0</v>
       </c>
       <c r="G2" t="str">
-        <v>Maybe</v>
+        <v>Yes</v>
       </c>
       <c r="H2" t="str">
         <v>Yes</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v/>
+        <v>10/3/25</v>
       </c>
       <c r="B3" t="str">
         <v>Design Add and Search Words Data Structure</v>
@@ -2310,6 +2310,18 @@
       </c>
       <c r="D3" t="str">
         <v>Medium</v>
+      </c>
+      <c r="E3" t="str">
+        <v>No</v>
+      </c>
+      <c r="F3" t="str">
+        <v>https://www.youtube.com/watch?v=BTf05gs_8iU</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Yes</v>
       </c>
     </row>
     <row r="4">

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -2325,6 +2325,9 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <v>10/5/25</v>
+      </c>
       <c r="B4" t="str">
         <v>Word Search 2</v>
       </c>
@@ -2333,6 +2336,18 @@
       </c>
       <c r="D4" t="str">
         <v>Hard</v>
+      </c>
+      <c r="E4" t="str">
+        <v>No (had idea but couldnt execute)</v>
+      </c>
+      <c r="F4" t="str">
+        <v>https://www.youtube.com/watch?v=asbcE9mZz_U</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Yes</v>
       </c>
     </row>
   </sheetData>

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Linked List" sheetId="6" r:id="rId6"/>
     <sheet name="Trees" sheetId="7" r:id="rId7"/>
     <sheet name="Tries" sheetId="8" r:id="rId8"/>
+    <sheet name="Heap" sheetId="9" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
@@ -2355,4 +2356,167 @@
     <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Date Solved</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Algorithm</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Difficulty</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Solved First Time</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Video Help</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Revisit?</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Understand?</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Revisit Date #1</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Revisit Date #2</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Revisit Date #3</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Confidence Now</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>10/7/25</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Kth Largest Element In a Stream</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Heap / Priority Queue</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Easy</v>
+      </c>
+      <c r="E2" t="str">
+        <v>No</v>
+      </c>
+      <c r="F2" t="str">
+        <v>https://youtu.be/hOjcdrqMoQ8</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="str">
+        <v>Last Stone Weight</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Heap / Priority Queue</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Easy</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="str">
+        <v>K Closest Points to Origin</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Heap / Priority Queue</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v>Kth Largest Element In An Array</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Heap / Priority Queue</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="str">
+        <v>Task Scheduler</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Heap / Priority Queue</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>Design Twitter</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Heap / Priority Queue</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="str">
+        <v>Find Median From Data Stream</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Heap / Priority Queue</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Hard</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="str">
+        <v>Intro to Priority Queues</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://www.youtube.com/watch?v=7z_HXFZqXqc</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="str">
+        <v>Intro to Heaps</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v>https://www.youtube.com/watch?v=t0Cq6tVNRBA</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:L12"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -704,9 +704,25 @@
         <v>Yes</v>
       </c>
     </row>
+    <row r="16">
+      <c r="B16" t="str">
+        <v>Intro to Hash Tables</v>
+      </c>
+      <c r="F16" t="str">
+        <v>https://www.youtube.com/watch?v=FsfRsGFHuv4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="str">
+        <v>Intro to Arrays</v>
+      </c>
+      <c r="F17" t="str">
+        <v>https://www.youtube.com/watch?v=9dr2mHYYoug</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L17"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -880,7 +896,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1084,16 +1100,24 @@
         <v>No</v>
       </c>
     </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>Intro to Stacks</v>
+      </c>
+      <c r="F10" t="str">
+        <v>https://www.youtube.com/watch?v=KInG04mAjO0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L10"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1297,9 +1321,22 @@
         <v>No</v>
       </c>
     </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>Intro to Binary Search</v>
+      </c>
+      <c r="F10" t="str">
+        <v>https://www.youtube.com/watch?v=xrMppTpoqdw</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1496,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1792,16 +1829,24 @@
         <v>Yes</v>
       </c>
     </row>
+    <row r="14">
+      <c r="B14" t="str">
+        <v>Intro to Linked Lists</v>
+      </c>
+      <c r="E14" t="str">
+        <v>https://www.youtube.com/watch?v=N6dOwBde7-M</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L14"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2221,16 +2266,24 @@
         <v>Yes</v>
       </c>
     </row>
+    <row r="21">
+      <c r="B21" t="str">
+        <v>Intro to BST</v>
+      </c>
+      <c r="F21" t="str">
+        <v>https://www.youtube.com/watch?v=Gt2yBZAhsGM</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2351,16 +2404,24 @@
         <v>Yes</v>
       </c>
     </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>Intro to Tries</v>
+      </c>
+      <c r="F7" t="str">
+        <v>https://www.youtube.com/watch?v=SDgp7TJJtk4</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2514,9 +2575,17 @@
         <v>https://www.youtube.com/watch?v=t0Cq6tVNRBA</v>
       </c>
     </row>
+    <row r="13">
+      <c r="B13" t="str">
+        <v>Intro to Queues</v>
+      </c>
+      <c r="F13" t="str">
+        <v>https://www.youtube.com/watch?v=nqXaPZi99JI</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -2491,6 +2491,9 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <v>10/9/25</v>
+      </c>
       <c r="B3" t="str">
         <v>Last Stone Weight</v>
       </c>
@@ -2500,8 +2503,20 @@
       <c r="D3" t="str">
         <v>Easy</v>
       </c>
+      <c r="E3" t="str">
+        <v>Yes (but theres a more complex/faster bucket sort version)</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Yes</v>
+      </c>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <v>10/9/25</v>
+      </c>
       <c r="B4" t="str">
         <v>K Closest Points to Origin</v>
       </c>
@@ -2510,6 +2525,18 @@
       </c>
       <c r="D4" t="str">
         <v>Medium</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Kinda (struggled with coding the comparator)</v>
+      </c>
+      <c r="F4" t="str">
+        <v>https://youtu.be/rI2EBUEMfTk</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Yes</v>
       </c>
     </row>
     <row r="5">

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -2540,6 +2540,9 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <v>10/14/25</v>
+      </c>
       <c r="B5" t="str">
         <v>Kth Largest Element In An Array</v>
       </c>
@@ -2548,6 +2551,15 @@
       </c>
       <c r="D5" t="str">
         <v>Medium</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Maybe</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Yes</v>
       </c>
     </row>
     <row r="6">
@@ -2587,7 +2599,7 @@
       <c r="B11" t="str">
         <v>Intro to Priority Queues</v>
       </c>
-      <c r="F11" t="str">
+      <c r="C11" t="str">
         <v>https://www.youtube.com/watch?v=7z_HXFZqXqc</v>
       </c>
     </row>
@@ -2596,9 +2608,6 @@
         <v>Intro to Heaps</v>
       </c>
       <c r="C12" t="str">
-        <v/>
-      </c>
-      <c r="F12" t="str">
         <v>https://www.youtube.com/watch?v=t0Cq6tVNRBA</v>
       </c>
     </row>
@@ -2606,7 +2615,7 @@
       <c r="B13" t="str">
         <v>Intro to Queues</v>
       </c>
-      <c r="F13" t="str">
+      <c r="C13" t="str">
         <v>https://www.youtube.com/watch?v=nqXaPZi99JI</v>
       </c>
     </row>

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -2563,6 +2563,9 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <v>10/17/25</v>
+      </c>
       <c r="B6" t="str">
         <v>Task Scheduler</v>
       </c>
@@ -2571,6 +2574,18 @@
       </c>
       <c r="D6" t="str">
         <v>Medium</v>
+      </c>
+      <c r="E6" t="str">
+        <v>No</v>
+      </c>
+      <c r="F6" t="str">
+        <v>https://youtu.be/s8p8ukTyA2I</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Yes</v>
       </c>
     </row>
     <row r="7">

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -2589,6 +2589,9 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <v>10/19/25</v>
+      </c>
       <c r="B7" t="str">
         <v>Design Twitter</v>
       </c>
@@ -2597,6 +2600,18 @@
       </c>
       <c r="D7" t="str">
         <v>Medium</v>
+      </c>
+      <c r="E7" t="str">
+        <v>No</v>
+      </c>
+      <c r="F7" t="str">
+        <v>https://www.youtube.com/watch?v=pNichitDD2E</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H7" t="str">
+        <v>No</v>
       </c>
     </row>
     <row r="8">

--- a/NeetCode150/LeetCodeTracker.xlsx
+++ b/NeetCode150/LeetCodeTracker.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Trees" sheetId="7" r:id="rId7"/>
     <sheet name="Tries" sheetId="8" r:id="rId8"/>
     <sheet name="Heap" sheetId="9" r:id="rId9"/>
+    <sheet name="Backtracking" sheetId="10" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
@@ -727,6 +728,160 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Date Solved</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Algorithm</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Difficulty</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Solved First Time</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Video Help</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Revisit?</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Understand?</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Revisit Date #1</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Revisit Date #2</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Revisit Date #3</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Confidence Now</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>10/24/25</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Subsets</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Backtracking</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="str">
+        <v>Combination Sum</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Backtracking</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="str">
+        <v>Combination Sum 2</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Backtracking</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v>Permutations</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Backtracking</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="str">
+        <v>Subsets 2</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Backtracking</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>Word Search</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Backtracking</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="str">
+        <v>Palindrome Partitioning</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Backtracking</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>Letter Combinations of a Phone Number</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Backtracking</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>N Queens</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Backtracking</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Hard</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:L10"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
